--- a/sgz/sgz.xlsx
+++ b/sgz/sgz.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,15 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>车号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>扫荡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +162,10 @@
   </si>
   <si>
     <t>要铺路的坐标，按顺序给要铺路的坐标，遍历执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建角色，新手引导</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,12 +189,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -214,8 +215,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -496,86 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>57</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>76</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>25</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>48</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,148 +513,153 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
+      <c r="B15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
       <c r="B19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/sgz/sgz.xlsx
+++ b/sgz/sgz.xlsx
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1小时执行一次，或分兵后执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 空；1 2 3 4 5 6 7 8 9 10；  11其他建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +162,10 @@
   </si>
   <si>
     <t>创建角色，新手引导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时执行一次，或快速分兵后执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,9 +498,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -543,123 +543,126 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
+      <c r="B14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B25" t="s">
-        <v>35</v>
+      <c r="B26" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/sgz/sgz.xlsx
+++ b/sgz/sgz.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>扫荡</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发育打地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铺路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 1 2 3 4 5 6 : 空 粮 石 木 铁 铜 造币厂营帐等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地块坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,14 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：自己；1：友盟；2：红色；3：主城或建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招募</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 空；1 2 3 4 5 6 7 8 9 10；  11其他建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0：自己；1 盟友； 2 友盟；3：红色；4 无人占领；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +146,22 @@
   </si>
   <si>
     <t>1小时执行一次，或快速分兵后执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打地发育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 1 2 3 4 5: 空 粮 石 木 铁 铜  6: 造币厂营帐等建筑 7: 不可占领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 空；1 2 3 4 5 6 7 8 9 10；  11其他建筑  12 不可占领</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,9 +217,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -500,15 +503,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="53.5" customWidth="1"/>
-    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="3" max="3" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +546,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -559,47 +562,47 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -607,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -617,52 +620,49 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
